--- a/xlsx/合众国际社_intext.xlsx
+++ b/xlsx/合众国际社_intext.xlsx
@@ -29,13 +29,13 @@
     <t>英文</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_合众国际社</t>
+    <t>政策_政策_维基百科_合众国际社</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B8%AE%E5%AF%AB</t>
   </si>
   <si>
-    <t>縮寫</t>
+    <t>缩写</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E9%83%A8</t>
   </si>
   <si>
-    <t>總部</t>
+    <t>总部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E7%89%B9%E5%8C%BA</t>
@@ -95,19 +95,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E8%81%AF%E7%A4%BE</t>
   </si>
   <si>
-    <t>美聯社</t>
+    <t>美联社</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A0%B4%E7%94%A2</t>
   </si>
   <si>
-    <t>破產</t>
+    <t>破产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%83%8F%E5%9C%B0%E9%98%BF%E6%8B%89%E4%BC%AF</t>
   </si>
   <si>
-    <t>沙烏地阿拉伯</t>
+    <t>沙乌地阿拉伯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%81%E4%B8%9A%E5%AE%B6</t>
@@ -119,13 +119,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%B1%E4%B8%80%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>統一教會</t>
+    <t>统一教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E5%9C%8B</t>
   </si>
   <si>
-    <t>韓國</t>
+    <t>韩国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AA%92%E4%BD%93</t>
